--- a/Lab4_BVT/Lab4.xlsx
+++ b/Lab4_BVT/Lab4.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GE\SoftwareQuality\lab3\SQA\Assignment\Lab4_BVT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GE\SoftwareQuality\lab\SQA\Assignment\Lab4_BVT\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="63">
   <si>
     <t>Test Case Design and Test Results</t>
   </si>
@@ -212,19 +212,10 @@
     <t>TS13</t>
   </si>
   <si>
-    <t>TS14</t>
-  </si>
-  <si>
-    <t>TS15</t>
-  </si>
-  <si>
     <t>Standard</t>
   </si>
   <si>
     <t>Gold</t>
-  </si>
-  <si>
-    <t>ซ้ำ</t>
   </si>
 </sst>
 </file>
@@ -915,7 +906,7 @@
   <dimension ref="A1:M30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="27.75"/>
@@ -1133,7 +1124,7 @@
         <v>550</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
@@ -1152,7 +1143,7 @@
         <v>550</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
@@ -1171,7 +1162,7 @@
         <v>550</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F11" s="6"/>
       <c r="G11" s="6"/>
@@ -1190,7 +1181,7 @@
         <v>550</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F12" s="6"/>
       <c r="G12" s="6"/>
@@ -1209,7 +1200,7 @@
         <v>550</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
@@ -1228,7 +1219,7 @@
         <v>550</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F14" s="6"/>
       <c r="G14" s="6"/>
@@ -1247,7 +1238,7 @@
         <v>550</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
@@ -1260,13 +1251,13 @@
         <v>55000</v>
       </c>
       <c r="C16" s="6">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D16" s="6">
         <v>550</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F16" s="6"/>
       <c r="G16" s="6"/>
@@ -1279,13 +1270,13 @@
         <v>55000</v>
       </c>
       <c r="C17" s="6">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D17" s="6">
         <v>550</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F17" s="6"/>
       <c r="G17" s="6"/>
@@ -1298,13 +1289,13 @@
         <v>55000</v>
       </c>
       <c r="C18" s="6">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D18" s="6">
-        <v>550</v>
+        <v>100</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F18" s="6"/>
       <c r="G18" s="6"/>
@@ -1320,10 +1311,10 @@
         <v>4</v>
       </c>
       <c r="D19" s="6">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
@@ -1339,10 +1330,10 @@
         <v>4</v>
       </c>
       <c r="D20" s="6">
-        <v>101</v>
+        <v>999</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
@@ -1358,49 +1349,29 @@
         <v>4</v>
       </c>
       <c r="D21" s="6">
-        <v>550</v>
+        <v>1000</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F21" s="6"/>
       <c r="G21" s="6"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="B22" s="6">
-        <v>55000</v>
-      </c>
-      <c r="C22" s="6">
-        <v>4</v>
-      </c>
-      <c r="D22" s="6">
-        <v>999</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>64</v>
-      </c>
+      <c r="A22" s="6"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
       <c r="F22" s="6"/>
       <c r="G22" s="6"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="B23" s="6">
-        <v>55000</v>
-      </c>
-      <c r="C23" s="6">
-        <v>4</v>
-      </c>
-      <c r="D23" s="6">
-        <v>1000</v>
-      </c>
-      <c r="E23" s="6" t="s">
-        <v>64</v>
-      </c>
+      <c r="A23" s="6"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
       <c r="F23" s="6"/>
       <c r="G23" s="6"/>
     </row>
@@ -1450,20 +1421,10 @@
       <c r="G28" s="6"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="6"/>
-      <c r="B29" s="6"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
       <c r="F29" s="6"/>
       <c r="G29" s="6"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="6"/>
-      <c r="B30" s="6"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
       <c r="F30" s="6"/>
       <c r="G30" s="6"/>
     </row>
